--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -4339,7 +4339,7 @@
         <v>6.864843391</v>
       </c>
       <c r="E84" t="n">
-        <v>9.229760776000001</v>
+        <v>9.229760775999999</v>
       </c>
       <c r="F84" t="n">
         <v>12.095855999</v>
@@ -10585,7 +10585,7 @@
         <v>34.030797419</v>
       </c>
       <c r="I228" t="n">
-        <v>9.132648294000001</v>
+        <v>9.132648293999999</v>
       </c>
       <c r="J228" t="n">
         <v>74.393485723</v>
